--- a/data/countries/aruba.xlsx
+++ b/data/countries/aruba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A8F4F3-42E5-8147-B7F0-D35B2C712B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B8A441-C813-F64C-B2D5-FAE0853D159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="16060" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>https://www.statista.com/statistics/935677/number-of-inbound-tourists-to-aruba</t>
   </si>
   <si>
-    <t>2008-2021 (yearly)</t>
-  </si>
-  <si>
     <t>UNWTO; Aruba Tourism Authority</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Total value of incoming tourism credits of Aruba from 2000 to 2020 (in million Aruban florin)</t>
   </si>
   <si>
-    <t>2008-2020 (yearly)</t>
-  </si>
-  <si>
     <t>covid19_mortality</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>covid19_cases, covid19_deaths, covid19_mortality</t>
+  </si>
+  <si>
+    <t>2010-2021 (yearly)</t>
+  </si>
+  <si>
+    <t>2010-2020 (yearly)</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -265,10 +265,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,7 +595,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -639,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -647,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -706,7 +714,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -722,14 +730,14 @@
         <v>12</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -741,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -757,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -765,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -773,7 +781,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -781,12 +789,13 @@
         <v>14</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E10" r:id="rId1" xr:uid="{9449403B-AF30-0B4C-BEB2-AE3A27698133}"/>
+    <hyperlink ref="E16" r:id="rId2" xr:uid="{D307216C-F7C5-A04D-A403-83975AB7075B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -794,10 +803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D00AED-5EBD-974C-A23B-D47D16AC0D47}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -822,290 +831,283 @@
         <v>22</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2008</v>
-      </c>
-      <c r="B2">
-        <v>826200</v>
-      </c>
-      <c r="C2">
-        <v>1400209500.0000002</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="A2" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="15">
+        <v>822300</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1334830500</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2009</v>
-      </c>
-      <c r="B3">
-        <v>810100</v>
-      </c>
-      <c r="C3">
-        <v>1313074500.0000002</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="A3" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="15">
+        <v>869000</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1422465000.0000002</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="12">
-        <v>822300</v>
-      </c>
-      <c r="C4">
-        <v>1334830500</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="15">
+        <v>903900</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1508989500.0000002</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="12">
-        <v>869000</v>
-      </c>
-      <c r="C5">
-        <v>1422465000.0000002</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-      <c r="F5">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="15">
+        <v>979300</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1607335500.0000002</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="12">
-        <v>903900</v>
-      </c>
-      <c r="C6">
-        <v>1508989500.0000002</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1072100</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1717947000.0000002</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="12">
-        <v>979300</v>
-      </c>
-      <c r="C7">
-        <v>1607335500.0000002</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1224900</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1777998000.0000002</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1072100</v>
-      </c>
-      <c r="C8">
-        <v>1717947000</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-      <c r="F8">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1102000</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1735984500.0000002</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1224900</v>
-      </c>
-      <c r="C9">
-        <v>1777998000</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1070500</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1831167000.0000002</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
-        <v>2016</v>
-      </c>
-      <c r="B10" s="12">
-        <v>1102000</v>
-      </c>
-      <c r="C10">
-        <v>1735984500.0000002</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1082000</v>
+      </c>
+      <c r="C10" s="15">
+        <v>2008434000.0000002</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
-        <v>2017</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1070500</v>
-      </c>
-      <c r="C11">
-        <v>1831167000.0000002</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1118900</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2080639500.0000002</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="12">
-        <v>1082000</v>
-      </c>
-      <c r="C12">
-        <v>2008434000.0000002</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+        <v>2020</v>
+      </c>
+      <c r="B12" s="15">
+        <v>368300</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1057386000.0000001</v>
+      </c>
+      <c r="D12" s="17">
+        <v>5489</v>
+      </c>
+      <c r="E12" s="17">
+        <v>49</v>
+      </c>
+      <c r="F12" s="17">
+        <f>E12/D12</f>
+        <v>8.9269447986882848E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1118900</v>
-      </c>
-      <c r="C13">
-        <v>2080639500.0000002</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>2020</v>
-      </c>
-      <c r="B14" s="12">
-        <v>368300</v>
-      </c>
-      <c r="C14">
-        <v>1057386000.0000002</v>
-      </c>
-      <c r="D14">
-        <v>5489</v>
-      </c>
-      <c r="E14">
-        <v>49</v>
-      </c>
-      <c r="F14">
-        <f>E14/D14</f>
-        <v>8.9269447986882848E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
         <v>2021</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B13" s="15">
         <v>806600</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15">
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="17">
         <v>14972</v>
       </c>
-      <c r="E15">
+      <c r="E13" s="17">
         <v>132</v>
       </c>
-      <c r="F15">
-        <f>E15/D15</f>
+      <c r="F13" s="17">
+        <f>E13/D13</f>
         <v>8.8164573871226289E-3</v>
       </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/countries/aruba.xlsx
+++ b/data/countries/aruba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B8A441-C813-F64C-B2D5-FAE0853D159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00FDA23-A07A-6945-8208-FE74882ADC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="16060" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="27640" windowHeight="16060" activeTab="1" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>General</t>
   </si>
@@ -105,9 +105,6 @@
     <t>covid19_deaths</t>
   </si>
   <si>
-    <t>2020-2021 (yearly)</t>
-  </si>
-  <si>
     <t>Only overnight visitors, converted from 1,000s to number</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>2010-2020 (yearly)</t>
+  </si>
+  <si>
+    <t>2020-2022 (yearly)</t>
   </si>
 </sst>
 </file>
@@ -246,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -272,11 +272,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CC475-90E8-AE41-9E12-080CDE43B3C3}">
   <dimension ref="B1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>45019</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -647,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -655,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -663,7 +661,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -698,7 +696,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -706,7 +704,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -714,7 +712,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -722,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -730,7 +728,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -738,7 +736,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -749,7 +747,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -765,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -773,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -781,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -789,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -805,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D00AED-5EBD-974C-A23B-D47D16AC0D47}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>18</v>
@@ -831,7 +829,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -844,13 +842,13 @@
       <c r="C2" s="15">
         <v>1334830500</v>
       </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
     </row>
@@ -864,13 +862,13 @@
       <c r="C3" s="15">
         <v>1422465000.0000002</v>
       </c>
-      <c r="D3" s="16">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
     </row>
@@ -884,13 +882,13 @@
       <c r="C4" s="15">
         <v>1508989500.0000002</v>
       </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -904,13 +902,13 @@
       <c r="C5" s="15">
         <v>1607335500.0000002</v>
       </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -924,13 +922,13 @@
       <c r="C6" s="15">
         <v>1717947000.0000002</v>
       </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
@@ -944,13 +942,13 @@
       <c r="C7" s="15">
         <v>1777998000.0000002</v>
       </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
     </row>
@@ -964,13 +962,13 @@
       <c r="C8" s="15">
         <v>1735984500.0000002</v>
       </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>
@@ -984,13 +982,13 @@
       <c r="C9" s="15">
         <v>1831167000.0000002</v>
       </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
     </row>
@@ -1004,13 +1002,13 @@
       <c r="C10" s="15">
         <v>2008434000.0000002</v>
       </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
     </row>
@@ -1024,13 +1022,13 @@
       <c r="C11" s="15">
         <v>2080639500.0000002</v>
       </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
     </row>
@@ -1044,13 +1042,13 @@
       <c r="C12" s="15">
         <v>1057386000.0000001</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12">
         <v>5489</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12">
         <v>49</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12">
         <f>E12/D12</f>
         <v>8.9269447986882848E-3</v>
       </c>
@@ -1063,17 +1061,38 @@
         <v>806600</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="17">
+        <v>30</v>
+      </c>
+      <c r="D13">
         <v>14972</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13">
         <v>132</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13">
         <f>E13/D13</f>
         <v>8.8164573871226289E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>23291</v>
+      </c>
+      <c r="E14">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <f>E14/D14</f>
+        <v>4.2505688892705337E-3</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
